--- a/Data/Input/Zone_DemandPower/ZoneA1.xlsx
+++ b/Data/Input/Zone_DemandPower/ZoneA1.xlsx
@@ -605,7 +605,7 @@
   <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
